--- a/jupiter_viii_distance/jupiter_viii_parallax_data_after_opposition.xlsx
+++ b/jupiter_viii_distance/jupiter_viii_parallax_data_after_opposition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmcewing/Documents/GitHub/dsw-notebooks/jupiter_viii_distance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C02FAC-9886-0B47-8AEC-072789EA0D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E3F4E-DF4E-214F-A82A-9E0AD849E3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="8400" windowWidth="27640" windowHeight="16940" xr2:uid="{87B74EA0-E07B-7544-ACAA-17CB4B48DC42}"/>
+    <workbookView xWindow="23560" yWindow="8400" windowWidth="27640" windowHeight="16940" xr2:uid="{87B74EA0-E07B-7544-ACAA-17CB4B48DC42}"/>
   </bookViews>
   <sheets>
     <sheet name="jupiter_viii_parallax_data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Group</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>2022-11-01T01:23:20Z</t>
+  </si>
+  <si>
+    <t>2022-11-03T00:55:58Z</t>
+  </si>
+  <si>
+    <t>2022-11-03T00:55:57Z</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27CA08E-49E4-B547-9EC2-2015C89377F8}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,6 +519,58 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>359.98452500000002</v>
+      </c>
+      <c r="F4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G4">
+        <v>-2.2189209999999999</v>
+      </c>
+      <c r="H4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>359.98496999999998</v>
+      </c>
+      <c r="F5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G5">
+        <v>-2.218261</v>
+      </c>
+      <c r="H5">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jupiter_viii_distance/jupiter_viii_parallax_data_after_opposition.xlsx
+++ b/jupiter_viii_distance/jupiter_viii_parallax_data_after_opposition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmcewing/Documents/GitHub/dsw-notebooks/jupiter_viii_distance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E3F4E-DF4E-214F-A82A-9E0AD849E3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E099F81-9929-A84C-9BAC-ADEDBDE1A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="8400" windowWidth="27640" windowHeight="16940" xr2:uid="{87B74EA0-E07B-7544-ACAA-17CB4B48DC42}"/>
+    <workbookView xWindow="3720" yWindow="10360" windowWidth="27640" windowHeight="16940" xr2:uid="{87B74EA0-E07B-7544-ACAA-17CB4B48DC42}"/>
   </bookViews>
   <sheets>
     <sheet name="jupiter_viii_parallax_data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Group</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>2022-11-03T00:55:57Z</t>
+  </si>
+  <si>
+    <t>2022-08-19T04:43:15Z</t>
+  </si>
+  <si>
+    <t>2022-08-19T04:46:22Z</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27CA08E-49E4-B547-9EC2-2015C89377F8}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -481,16 +487,16 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>6.6099000000000005E-2</v>
+        <v>6.0364529999999998</v>
       </c>
       <c r="F2">
-        <v>9.9000000000000005E-2</v>
+        <v>0.126</v>
       </c>
       <c r="G2">
-        <v>-2.1863640000000002</v>
+        <v>1.018186</v>
       </c>
       <c r="H2">
-        <v>9.7000000000000003E-2</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -498,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -507,16 +513,16 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>6.6558999999999993E-2</v>
+        <v>6.0367220000000001</v>
       </c>
       <c r="F3">
-        <v>0.105</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G3">
-        <v>-2.185765</v>
+        <v>1.018743</v>
       </c>
       <c r="H3">
-        <v>0.11600000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -524,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -533,16 +539,16 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>359.98452500000002</v>
+        <v>6.6099000000000005E-2</v>
       </c>
       <c r="F4">
-        <v>6.2E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="G4">
-        <v>-2.2189209999999999</v>
+        <v>-2.1863640000000002</v>
       </c>
       <c r="H4">
-        <v>5.7000000000000002E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -550,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -559,15 +565,67 @@
         <v>10</v>
       </c>
       <c r="E5">
+        <v>6.6558999999999993E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.105</v>
+      </c>
+      <c r="G5">
+        <v>-2.185765</v>
+      </c>
+      <c r="H5">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>359.98452500000002</v>
+      </c>
+      <c r="F6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.2189209999999999</v>
+      </c>
+      <c r="H6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>359.98496999999998</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>-2.218261</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>0.11600000000000001</v>
       </c>
     </row>
